--- a/Pagos Eventuales realizados/03- MARZO/Agentes a pagar 23.3.23.xlsx
+++ b/Pagos Eventuales realizados/03- MARZO/Agentes a pagar 23.3.23.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
   <si>
     <t>Nro control</t>
   </si>
@@ -84,6 +84,54 @@
   </si>
   <si>
     <t>QUINTEROS MARCOS LUIS</t>
+  </si>
+  <si>
+    <t>GUALTIERI INGRID SAMANTA</t>
+  </si>
+  <si>
+    <t>SAPAG MARIA VANESA DEL HU</t>
+  </si>
+  <si>
+    <t>SARAVIA VANESSA RAQUEL</t>
+  </si>
+  <si>
+    <t>BARRAZA MELINA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>MANSILLA FELIPA LORENZA</t>
+  </si>
+  <si>
+    <t>LOBO GUSTAVO DANIEL</t>
+  </si>
+  <si>
+    <t>GARCIA PIAZZA ANGEL F</t>
+  </si>
+  <si>
+    <t>CORRALES DOLORES CLARIBEL</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO CARLOS A</t>
+  </si>
+  <si>
+    <t>28463091</t>
+  </si>
+  <si>
+    <t>PAVON FRANCISCO R</t>
+  </si>
+  <si>
+    <t>SERRANO MARIA JOSE</t>
+  </si>
+  <si>
+    <t>GOMEZ NAZARENO DAMIAN</t>
+  </si>
+  <si>
+    <t>AZAR JORGE DANIEL</t>
+  </si>
+  <si>
+    <t>SALDANIO JULIO CESAR</t>
+  </si>
+  <si>
+    <t>CARABAJAL CIELO MERARI NO</t>
   </si>
 </sst>
 </file>
@@ -516,7 +564,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,12 +636,18 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="7">
+        <v>41222409</v>
+      </c>
+      <c r="D4" s="7">
+        <v>90077023</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
@@ -608,12 +662,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="7">
+        <v>30917981</v>
+      </c>
+      <c r="D5" s="7">
+        <v>90076323</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
@@ -628,12 +688,18 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="7">
+        <v>28247845</v>
+      </c>
+      <c r="D6" s="7">
+        <v>90077125</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
@@ -648,12 +714,18 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7">
+        <v>42139389</v>
+      </c>
+      <c r="D7" s="7">
+        <v>90076124</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
@@ -668,12 +740,18 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="7">
+        <v>27909013</v>
+      </c>
+      <c r="D8" s="7">
+        <v>90077222</v>
+      </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
@@ -688,12 +766,18 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="6">
+        <v>18711259</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
@@ -708,12 +792,18 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="6">
+        <v>31825159</v>
+      </c>
+      <c r="D10" s="6">
+        <v>77325112</v>
+      </c>
       <c r="E10" s="8" t="s">
         <v>4</v>
       </c>
@@ -728,12 +818,18 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="6">
+        <v>34913255</v>
+      </c>
+      <c r="D11" s="6">
+        <v>69071991</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>4</v>
       </c>
@@ -748,12 +844,18 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="6">
+        <v>28733515</v>
+      </c>
+      <c r="D12" s="6">
+        <v>90076425</v>
+      </c>
       <c r="E12" s="8" t="s">
         <v>4</v>
       </c>
@@ -768,12 +870,18 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="6">
+        <v>42650798</v>
+      </c>
+      <c r="D13" s="6">
+        <v>90076022</v>
+      </c>
       <c r="E13" s="8" t="s">
         <v>4</v>
       </c>
@@ -850,12 +958,18 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="7">
+        <v>27390405</v>
+      </c>
+      <c r="D19" s="7">
+        <v>90077625</v>
+      </c>
       <c r="E19" s="8" t="s">
         <v>11</v>
       </c>
@@ -870,12 +984,18 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="6">
+        <v>32928818</v>
+      </c>
+      <c r="D20" s="6">
+        <v>90077921</v>
+      </c>
       <c r="E20" s="8" t="s">
         <v>11</v>
       </c>
@@ -890,12 +1010,18 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="7">
+        <v>12635266</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1022031</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>11</v>
       </c>
@@ -910,12 +1036,18 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="7">
+        <v>43159924</v>
+      </c>
+      <c r="D22" s="7">
+        <v>90077523</v>
+      </c>
       <c r="E22" s="8" t="s">
         <v>11</v>
       </c>
@@ -930,12 +1062,18 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="7">
+        <v>27348247</v>
+      </c>
+      <c r="D23" s="7">
+        <v>28869035</v>
+      </c>
       <c r="E23" s="8" t="s">
         <v>11</v>
       </c>
@@ -950,12 +1088,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="6">
+        <v>18711259</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="8" t="s">
         <v>11</v>
       </c>
@@ -970,12 +1114,18 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="6">
+        <v>13790624</v>
+      </c>
+      <c r="D25" s="6">
+        <v>90010364</v>
+      </c>
       <c r="E25" s="8" t="s">
         <v>11</v>
       </c>
@@ -1068,12 +1218,18 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="6">
+        <v>32928818</v>
+      </c>
+      <c r="D32" s="6">
+        <v>90077921</v>
+      </c>
       <c r="E32" s="8" t="s">
         <v>12</v>
       </c>
@@ -1088,12 +1244,18 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="7">
+        <v>12635266</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1022031</v>
+      </c>
       <c r="E33" s="8" t="s">
         <v>12</v>
       </c>
@@ -1108,12 +1270,18 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="6">
+        <v>18711259</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="E34" s="8" t="s">
         <v>12</v>
       </c>

--- a/Pagos Eventuales realizados/03- MARZO/Agentes a pagar 23.3.23.xlsx
+++ b/Pagos Eventuales realizados/03- MARZO/Agentes a pagar 23.3.23.xlsx
@@ -13,15 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="51">
   <si>
     <t>Nro control</t>
   </si>
@@ -132,6 +130,48 @@
   </si>
   <si>
     <t>CARABAJAL CIELO MERARI NO</t>
+  </si>
+  <si>
+    <t>PEREZ MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>SORIA ROGER OMAR</t>
+  </si>
+  <si>
+    <t>38741245</t>
+  </si>
+  <si>
+    <t>SONZOGNI NORMA ELIZABETH</t>
+  </si>
+  <si>
+    <t>TORRES CESAR ANTONIO</t>
+  </si>
+  <si>
+    <t>CUEVAS SUSANA MERCEDES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ MIRIAN DEL V</t>
+  </si>
+  <si>
+    <t>RUIZ MARTA OFELIA</t>
+  </si>
+  <si>
+    <t>CORTES CRISTINA EMILIA</t>
+  </si>
+  <si>
+    <t>CARABAJAL MARIA MARCELA</t>
+  </si>
+  <si>
+    <t>NEME ANA V DE CESARE DE</t>
+  </si>
+  <si>
+    <t>GALLO BLANCA MERCADO DE</t>
+  </si>
+  <si>
+    <t>LOPEZ DORA IGNACIA</t>
+  </si>
+  <si>
+    <t>CARO DIEGO ALBERTO</t>
   </si>
 </sst>
 </file>
@@ -560,11 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1140,12 +1180,18 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="6">
+        <v>25172356</v>
+      </c>
+      <c r="D26" s="6">
+        <v>38369815</v>
+      </c>
       <c r="E26" s="8" t="s">
         <v>11</v>
       </c>
@@ -1296,12 +1342,18 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="C35" s="7">
+        <v>14546584</v>
+      </c>
+      <c r="D35" s="7">
+        <v>38283983</v>
+      </c>
       <c r="E35" s="8" t="s">
         <v>12</v>
       </c>
@@ -1316,12 +1368,18 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="B36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="7">
+        <v>14214722</v>
+      </c>
+      <c r="D36" s="7">
+        <v>38862211</v>
+      </c>
       <c r="E36" s="8" t="s">
         <v>12</v>
       </c>
@@ -1336,12 +1394,18 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="6">
+        <v>14032294</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="E37" s="8" t="s">
         <v>12</v>
       </c>
@@ -1356,12 +1420,18 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
+      <c r="A38" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="6">
+        <v>14054779</v>
+      </c>
+      <c r="D38" s="6">
+        <v>28719395</v>
+      </c>
       <c r="E38" s="8" t="s">
         <v>12</v>
       </c>
@@ -1376,12 +1446,18 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
+      <c r="A39" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="6">
+        <v>17058747</v>
+      </c>
+      <c r="D39" s="6">
+        <v>38121563</v>
+      </c>
       <c r="E39" s="8" t="s">
         <v>12</v>
       </c>
@@ -1392,6 +1468,214 @@
         <v>14</v>
       </c>
       <c r="H39" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="6">
+        <v>14211641</v>
+      </c>
+      <c r="D40" s="6">
+        <v>58179105</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="7">
+        <v>60000</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="6">
+        <v>17522094</v>
+      </c>
+      <c r="D41" s="6">
+        <v>38117551</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="7">
+        <v>60000</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="6">
+        <v>11833071</v>
+      </c>
+      <c r="D42" s="6">
+        <v>37002455</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="7">
+        <v>60000</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="6">
+        <v>17058989</v>
+      </c>
+      <c r="D43" s="6">
+        <v>57052502</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="7">
+        <v>60000</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="6">
+        <v>17982894</v>
+      </c>
+      <c r="D44" s="6">
+        <v>28117381</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="7">
+        <v>60000</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="6">
+        <v>5911038</v>
+      </c>
+      <c r="D45" s="6">
+        <v>38172475</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="7">
+        <v>60000</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="6">
+        <v>14846773</v>
+      </c>
+      <c r="D46" s="6">
+        <v>38125685</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="7">
+        <v>60000</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="6">
+        <v>25172356</v>
+      </c>
+      <c r="D47" s="6">
+        <v>38369815</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="7">
+        <v>60000</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1399,28 +1683,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>